--- a/Firmware/Resources/SpeedCalc.xlsx
+++ b/Firmware/Resources/SpeedCalc.xlsx
@@ -11,8 +11,8 @@
     <sheet name="BRP" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Bitrate!$A$1:$B$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">BRP!$A$1:$B$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Bitrate!$A$1:$C$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">BRP!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -332,6 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -343,14 +349,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,14 +667,14 @@
     <col min="5" max="7" width="10.77734375" style="2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="8">
         <v>64</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="8"/>
       <c r="E1" s="2">
         <f>B1*1000000</f>
         <v>64000000</v>
@@ -685,14 +686,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="9"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -700,14 +701,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="F3" s="2">
         <v>2</v>
       </c>
@@ -715,7 +716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2">
         <v>3</v>
       </c>
@@ -723,15 +724,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <f>E5*1000000</f>
         <v>0.5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="10"/>
       <c r="E5" s="2">
         <f>2 * (B2 + 1) / E1</f>
         <v>4.9999999999999998E-7</v>
@@ -743,15 +744,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <f>E6*1000000</f>
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="10"/>
       <c r="E6" s="2">
         <f>B3*E5</f>
         <v>7.9999999999999996E-6</v>
@@ -763,15 +764,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <f>E7/1000</f>
         <v>125</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="7"/>
       <c r="E7" s="2">
         <f>1/E6</f>
         <v>125000</v>
@@ -783,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="2">
         <v>7</v>
       </c>
@@ -791,12 +792,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -804,9 +805,9 @@
         <f>B2</f>
         <v>15</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -819,7 +820,7 @@
         <v>2 TQ</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -832,7 +833,7 @@
         <v>7 TQ</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -845,7 +846,7 @@
         <v>6 TQ</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -902,14 +903,14 @@
     <col min="5" max="7" width="10.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="8">
         <v>64</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="8"/>
       <c r="E1">
         <f>B1*1000000</f>
         <v>64000000</v>
@@ -921,14 +922,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="11">
         <v>125</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="11"/>
       <c r="E2">
         <f>B2*1000</f>
         <v>125000</v>
@@ -940,14 +941,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="F3" s="2">
         <v>2</v>
       </c>
@@ -956,7 +957,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2">
         <v>5</v>
       </c>
@@ -964,15 +965,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <f>E5*1000000</f>
         <v>0.5</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="10"/>
       <c r="E5">
         <f>2 * (B10 + 1) / E1</f>
         <v>4.9999999999999998E-7</v>
@@ -984,15 +985,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="10">
         <f>E6*1000000</f>
         <v>8</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="10"/>
       <c r="E6">
         <f>B3*E5</f>
         <v>7.9999999999999996E-6</v>
@@ -1004,29 +1005,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <f>E7/1000</f>
         <v>125</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="7"/>
       <c r="E7">
         <f>1/E6</f>
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1036,7 @@
         <f>CEILING(E10,1)</f>
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="4"/>
       <c r="E10">
         <f>E1/(2*B3*E2)-1</f>
         <v>15</v>
@@ -1046,7 +1048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>2 TQ</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1074,7 @@
         <v>7 TQ</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>6 TQ</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1109,9 +1111,6 @@
     <mergeCell ref="B6:C6"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"16,64"</formula1>
-    </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>0</formula1>
       <formula2>31</formula2>
@@ -1124,6 +1123,10 @@
       <formula1>8</formula1>
       <formula2>25</formula2>
     </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1">
+      <formula1>16</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
